--- a/code/main/model_output/apollo/battery/0_battery_model_combine_output.xlsx
+++ b/code/main/model_output/apollo/battery/0_battery_model_combine_output.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xnw17/Documents/GitHub/Conjoint_Survey_25/code/main/model_output/apollo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xnw17/Documents/GitHub/Conjoint_Survey_25/code/main/model_output/apollo/battery/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56B515B-3034-C442-A404-DA4FC2AA0826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264A4660-45BC-3241-9597-1E510D2439FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="16680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2440" yWindow="1320" windowWidth="30240" windowHeight="14540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coef_fit" sheetId="1" r:id="rId1"/>
     <sheet name="WTP_interpretation" sheetId="2" r:id="rId2"/>
-    <sheet name="Factor_analysis" sheetId="3" r:id="rId3"/>
+    <sheet name="price sensitivity" sheetId="5" r:id="rId3"/>
+    <sheet name="Factor_analysis" sheetId="3" r:id="rId4"/>
+    <sheet name="Issues" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="221">
   <si>
     <t>variables/fit_indices</t>
   </si>
@@ -485,9 +487,6 @@
   </si>
   <si>
     <t>100 miles of battery range</t>
-  </si>
-  <si>
-    <t>1% increase annually in battery degradation</t>
   </si>
   <si>
     <t>refurbished pack replacement (vs new battery)</t>
@@ -646,6 +645,130 @@
       <t xml:space="preserve"> Negative attitudes, high anxiety, low used BEV interest</t>
     </r>
   </si>
+  <si>
+    <t>1% increase in annual battery degradation</t>
+  </si>
+  <si>
+    <t>Orginal sample</t>
+  </si>
+  <si>
+    <t>ATT_EVB_environment</t>
+  </si>
+  <si>
+    <t>ATT_EVB_function</t>
+  </si>
+  <si>
+    <t>Showing 1 to 3 of 3 entries, 7 total columns</t>
+  </si>
+  <si>
+    <t>HH_income</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>Reduced sample (BEV price&gt;= $20K + at least 3 price levels)</t>
+  </si>
+  <si>
+    <t>Table 4. Attributes and attribute levels</t>
+  </si>
+  <si>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>Levels</t>
+  </si>
+  <si>
+    <t>Mileage</t>
+  </si>
+  <si>
+    <t>Ranges from 15,000 to 50,000 miles, increasing in increments of 500 miles.</t>
+  </si>
+  <si>
+    <t>Purchase price </t>
+  </si>
+  <si>
+    <t>Ranges from 80% to 120% of the respondents’ self-reported maximum budget for their next vehicle, in 10% increments.</t>
+  </si>
+  <si>
+    <t>Battery refurbishment history</t>
+  </si>
+  <si>
+    <t>Original – The battery remains in its factory-original condition with no repairs or replacements.</t>
+  </si>
+  <si>
+    <t>Some battery cells replaced – A portion of the battery cells has been replaced to address performance issues or extend battery life, while the rest remains original.</t>
+  </si>
+  <si>
+    <t>Entire battery pack replaced – The full battery pack has been replaced with a new, refurbished, or used pack, typically due to a decline in battery performance below a certain threshold.</t>
+  </si>
+  <si>
+    <t>Electric range;</t>
+  </si>
+  <si>
+    <t>Battery State-of-Health</t>
+  </si>
+  <si>
+    <t>Initial Electric Range (Year 0): Ranges from 200 to 360 miles, in increments of 40 miles.</t>
+  </si>
+  <si>
+    <t>Battery Degradation: Indicates the average annual loss in both electric range and battery state-of-health, varying from 1% to 8% in 1% increments.</t>
+  </si>
+  <si>
+    <t>Narrow price range (80–120% in 10% steps) → weak identification of β_price.</t>
+  </si>
+  <si>
+    <t>If price doesn’t vary much across alternatives (and across choice tasks), the model estimates a small or imprecise price coefficient</t>
+  </si>
+  <si>
+    <t>Price correlated with respondents’ budgets / other attributes</t>
+  </si>
+  <si>
+    <t>price depends on the respondent’s budget, it may correlate with demographics or willingness to pay (endogeneity)</t>
+  </si>
+  <si>
+    <t>Fix:</t>
+  </si>
+  <si>
+    <t>Unrealistic price for 3-year-old used BEVs--&gt; 4% &lt;$20K, 23%&lt;$30K</t>
+  </si>
+  <si>
+    <t>Reduced sample (BEV price&gt;= $30K + at least 3 price levels)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set price based on market values </t>
+  </si>
+  <si>
+    <t>Endogeneity and Anchoring Bias</t>
+  </si>
+  <si>
+    <t>Respondents may justify choices based on "I said my budget was X, so I should choose near X" --&gt; shall we consider removing the budget question?</t>
+  </si>
+  <si>
+    <r>
+      <t>Every respondent s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>ees identical price variations.</t>
+    </r>
+  </si>
+  <si>
+    <t>Variation is independent of respondent characteristics.</t>
+  </si>
+  <si>
+    <t>Issues (Narrow variation, different price sensitivity --&gt;	 small β_price --&gt; inflated WTP):</t>
+  </si>
+  <si>
+    <t>assign different values for cars vs. SUVs?</t>
+  </si>
+  <si>
+    <t>pick 6–8 levels that span below and above typical budgets (e.g.,  10-90 quantile  of a 3-year-old BEV from JP's dataset), Use absolute dollar amounts: $22-35 K</t>
+  </si>
 </sst>
 </file>
 
@@ -656,7 +779,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.0_);[Red]\(&quot;$&quot;#,##0.0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -736,8 +859,113 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -756,6 +984,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -766,11 +1006,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -849,6 +1090,12 @@
     <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -858,8 +1105,36 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -877,6 +1152,212 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3073" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009E5501-273C-3D4E-D18B-F3F684DC90D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7226300" y="4483100"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3074" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D488475-66D8-4F84-FCBD-595C665D031C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7226300" y="4483100"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>70894</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2936ED5B-0A6E-4065-BCFC-622789C4D1E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8089900" y="0"/>
+          <a:ext cx="7772400" cy="5214394"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19756</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A3A30AD-D239-C06F-F027-889E0349E2CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="431800" y="203200"/>
+          <a:ext cx="7416800" cy="5150556"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -914,6 +1395,99 @@
         <a:xfrm>
           <a:off x="0" y="2429933"/>
           <a:ext cx="4000500" cy="2730500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5481623</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>521026</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>105018</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8D1991F-68C8-8152-421A-AE4009D38618}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7392050" y="0"/>
+          <a:ext cx="4808634" cy="1863480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>75983</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>54274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5264856</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>124612</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E319C1-BA77-92A3-3D61-93AC0DF4D21E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="75983" y="54274"/>
+          <a:ext cx="7099300" cy="1828800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1242,28 +1816,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE76"/>
+  <dimension ref="A1:AG76"/>
   <sheetViews>
-    <sheetView zoomScale="136" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N13" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V34" sqref="V34"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="3" width="8.83203125" style="1"/>
-    <col min="11" max="11" width="8.83203125" style="7"/>
+    <col min="2" max="3" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="0" style="7" hidden="1" customWidth="1"/>
     <col min="12" max="16" width="8.83203125" style="8"/>
-    <col min="23" max="23" width="18.33203125" customWidth="1"/>
-    <col min="24" max="26" width="8.83203125" style="2"/>
-    <col min="28" max="28" width="13.6640625" customWidth="1"/>
-    <col min="29" max="31" width="8.83203125" style="1"/>
+    <col min="17" max="22" width="0" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="24" max="26" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="0" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="30" max="32" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1339,8 +1917,20 @@
       <c r="AA1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD1" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE1" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF1" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -1357,7 +1947,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1374,7 +1964,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1391,7 +1981,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1408,7 +1998,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1425,7 +2015,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1441,17 +2031,8 @@
       <c r="E7" t="s">
         <v>79</v>
       </c>
-      <c r="AC7" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1468,16 +2049,16 @@
         <v>79</v>
       </c>
       <c r="X8" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y8" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="Y8" s="2" t="s">
+      <c r="Z8" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="Z8" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>119</v>
       </c>
@@ -1529,8 +2110,20 @@
       <c r="Z9" s="1">
         <v>7.8205980333034798E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD9" s="2">
+        <v>-3.8448500000000001</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>1.8133300000000001</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>1.6989000000000001E-2</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1582,8 +2175,17 @@
       <c r="Z10" s="1">
         <v>0.87586301023635005</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD10" s="2">
+        <v>-3.107E-2</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>7.8719999999999998E-2</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>0.34656399999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1635,8 +2237,20 @@
       <c r="Z11" s="1">
         <v>4.21338332512455E-6</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD11" s="2">
+        <v>1.2560199999999999</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>0.45895999999999998</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>3.104E-3</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1688,8 +2302,20 @@
       <c r="Z12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD12" s="2">
+        <v>-0.49913000000000002</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>6.9980000000000001E-2</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>4.9179999999999998E-13</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1741,8 +2367,17 @@
       <c r="Z13" s="1">
         <v>0.51795416345752698</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD13" s="2">
+        <v>-0.15678</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>0.19853999999999999</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>0.21485899999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1794,8 +2429,17 @@
       <c r="Z14" s="1">
         <v>0.278831426572481</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD14" s="2">
+        <v>-3.4259999999999999E-2</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>0.20018</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>0.43204700000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1836,7 +2480,7 @@
         <v>102</v>
       </c>
       <c r="W15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X15" s="1">
         <v>-3.1661548503363299</v>
@@ -1847,8 +2491,20 @@
       <c r="Z15" s="1">
         <v>4.1730275122375799E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD15" s="2">
+        <v>-0.89258999999999999</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>0.23326</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>6.4950000000000007E-5</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>120</v>
       </c>
@@ -1900,8 +2556,20 @@
       <c r="Z16" s="1">
         <v>7.9707351829938505E-12</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AD16" s="2">
+        <v>-7.96129</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>1.4593</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>2.4410000000000002E-8</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1953,8 +2621,20 @@
       <c r="Z17" s="1">
         <v>2.78453385460509E-7</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AD17" s="2">
+        <v>-0.38529000000000002</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>9.851E-2</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>4.5930000000000002E-5</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -2006,8 +2686,17 @@
       <c r="Z18" s="1">
         <v>0.82052294774046597</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AD18" s="2">
+        <v>-2.2179999999999998E-2</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>0.15311</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>0.44242199999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -2059,8 +2748,20 @@
       <c r="Z19" s="1">
         <v>5.3628354105723398E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AD19" s="2">
+        <v>-7.5870000000000007E-2</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>4.8149999999999998E-2</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>5.7537999999999999E-2</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -2112,8 +2813,17 @@
       <c r="Z20" s="1">
         <v>0.131822808612897</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AD20" s="2">
+        <v>-0.25734000000000001</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>0.26011000000000001</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>0.161245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -2165,8 +2875,20 @@
       <c r="Z21" s="1">
         <v>2.3818523641627998E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AD21" s="2">
+        <v>-0.38590000000000002</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>0.2495</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>6.0964999999999998E-2</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -2207,7 +2929,7 @@
         <v>92</v>
       </c>
       <c r="W22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X22" s="1">
         <v>-3.0942003202427699</v>
@@ -2218,8 +2940,20 @@
       <c r="Z22" s="1">
         <v>4.0549490504915298E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AD22" s="2">
+        <v>-0.66744999999999999</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>0.28028999999999998</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>8.6269999999999993E-3</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>121</v>
       </c>
@@ -2259,8 +2993,17 @@
       <c r="Z23" s="1">
         <v>0.19237834821258801</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AD23" s="2">
+        <v>-1.3184</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>1.1063000000000001</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>0.116685</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -2300,8 +3043,20 @@
       <c r="Z24" s="1">
         <v>3.1440619398475098E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AD24" s="2">
+        <v>-0.21736</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>9.1069999999999998E-2</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>8.4960000000000001E-3</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +3096,20 @@
       <c r="Z25" s="1">
         <v>2.8838123999568302E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AD25" s="2">
+        <v>0.55942000000000003</v>
+      </c>
+      <c r="AE25" s="2">
+        <v>0.21071999999999999</v>
+      </c>
+      <c r="AF25" s="2">
+        <v>3.967E-3</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -2382,8 +3149,20 @@
       <c r="Z26" s="1">
         <v>3.6591378815842299E-9</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AD26" s="2">
+        <v>-0.26166</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>6.3729999999999995E-2</v>
+      </c>
+      <c r="AF26" s="2">
+        <v>2.0169999999999998E-5</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -2423,8 +3202,20 @@
       <c r="Z27" s="1">
         <v>9.8100376911602893E-5</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AD27" s="2">
+        <v>-0.88768999999999998</v>
+      </c>
+      <c r="AE27" s="2">
+        <v>0.34908</v>
+      </c>
+      <c r="AF27" s="2">
+        <v>5.496E-3</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -2464,8 +3255,20 @@
       <c r="Z28" s="1">
         <v>1.22526876979112E-4</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AD28" s="2">
+        <v>-1.1224400000000001</v>
+      </c>
+      <c r="AE28" s="2">
+        <v>0.35481000000000001</v>
+      </c>
+      <c r="AF28" s="2">
+        <v>7.7932999999999995E-4</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -2494,7 +3297,7 @@
         <v>93</v>
       </c>
       <c r="W29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X29" s="1">
         <v>-0.850212582576645</v>
@@ -2505,8 +3308,20 @@
       <c r="Z29" s="1">
         <v>2.0765528710204898E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AD29" s="2">
+        <v>-0.54334000000000005</v>
+      </c>
+      <c r="AE29" s="2">
+        <v>0.21321000000000001</v>
+      </c>
+      <c r="AF29" s="2">
+        <v>5.411E-3</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>122</v>
       </c>
@@ -2526,7 +3341,7 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -2546,7 +3361,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -2566,7 +3381,7 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -2586,7 +3401,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -2606,7 +3421,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -2626,7 +3441,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -2646,7 +3461,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2674,8 +3489,17 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AD37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF37" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2704,13 +3528,22 @@
         <v>0</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF38" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2739,13 +3572,22 @@
         <v>0</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="AD39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF39" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -2774,13 +3616,22 @@
         <v>0</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="AD40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF40" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -2827,13 +3678,22 @@
         <v>0</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="AD41" s="2">
+        <v>-0.71603000000000006</v>
+      </c>
+      <c r="AE41" s="2">
+        <v>0.70047999999999999</v>
+      </c>
+      <c r="AF41" s="2">
+        <v>0.15334400000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2885,8 +3745,17 @@
       <c r="Z42" s="1">
         <v>0.70541606156557302</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AD42" s="2">
+        <v>0.12605</v>
+      </c>
+      <c r="AE42" s="2">
+        <v>0.18110000000000001</v>
+      </c>
+      <c r="AF42" s="2">
+        <v>0.24321400000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2938,8 +3807,17 @@
       <c r="Z43" s="1">
         <v>0.90229302450905402</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AD43" s="2">
+        <v>-3.986E-2</v>
+      </c>
+      <c r="AE43" s="2">
+        <v>0.36563000000000001</v>
+      </c>
+      <c r="AF43" s="2">
+        <v>0.456596</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -2991,8 +3869,17 @@
       <c r="Z44" s="1">
         <v>0.83573456547132896</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AD44" s="2">
+        <v>-0.31102000000000002</v>
+      </c>
+      <c r="AE44" s="2">
+        <v>0.18459</v>
+      </c>
+      <c r="AF44" s="2">
+        <v>4.5995000000000001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -3032,8 +3919,17 @@
       <c r="Z45" s="1">
         <v>9.7600729286379001E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AD45" s="2">
+        <v>0.75405999999999995</v>
+      </c>
+      <c r="AE45" s="2">
+        <v>0.50219999999999998</v>
+      </c>
+      <c r="AF45" s="2">
+        <v>6.6610000000000003E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -3073,8 +3969,17 @@
       <c r="Z46" s="1">
         <v>0.29187770623706999</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AD46" s="2">
+        <v>-0.58472999999999997</v>
+      </c>
+      <c r="AE46" s="2">
+        <v>0.19281999999999999</v>
+      </c>
+      <c r="AF46" s="2">
+        <v>1.2130000000000001E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -3114,8 +4019,17 @@
       <c r="Z47" s="1">
         <v>4.0373699646203401E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AD47" s="2">
+        <v>-0.34614</v>
+      </c>
+      <c r="AE47" s="2">
+        <v>0.25913000000000003</v>
+      </c>
+      <c r="AF47" s="2">
+        <v>9.0813000000000005E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -3155,8 +4069,17 @@
       <c r="Z48" s="1">
         <v>0.21686788835542301</v>
       </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AD48" s="2">
+        <v>0.20022999999999999</v>
+      </c>
+      <c r="AE48" s="2">
+        <v>0.18360000000000001</v>
+      </c>
+      <c r="AF48" s="2">
+        <v>0.13773299999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -3182,7 +4105,7 @@
         <v>0.137228259793827</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -3199,7 +4122,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -3216,7 +4139,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -3233,7 +4156,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -3252,8 +4175,11 @@
       <c r="AA55" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AG55">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -3272,8 +4198,11 @@
       <c r="AA56" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AG56">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -3292,8 +4221,11 @@
       <c r="AA57" s="2">
         <v>-3052.35</v>
       </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AG57">
+        <v>-1938.41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -3312,8 +4244,11 @@
       <c r="AA58">
         <v>-3102.53</v>
       </c>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AG58">
+        <v>-2445.42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -3332,8 +4267,11 @@
       <c r="AA59">
         <v>-2995.04</v>
       </c>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AG59">
+        <v>-2388.0300000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -3352,8 +4290,11 @@
       <c r="AA60" s="2">
         <v>-2421.54</v>
       </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AG60">
+        <v>-1930.14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -3372,8 +4313,11 @@
       <c r="AA61">
         <v>0.2195</v>
       </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AG61">
+        <v>0.2107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -3392,8 +4336,11 @@
       <c r="AA62">
         <v>0.21010000000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AG62">
+        <v>0.19889999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -3412,8 +4359,11 @@
       <c r="AA63">
         <v>0.1915</v>
       </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AG63">
+        <v>0.19170000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -3432,8 +4382,11 @@
       <c r="AA64">
         <v>0.18479999999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AG64">
+        <v>0.18340000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -3452,8 +4405,11 @@
       <c r="AA65" s="17">
         <v>4901.08</v>
       </c>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AG65">
+        <v>3918.29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -3472,15 +4428,18 @@
       <c r="AA66" s="17">
         <v>5066.7700000000004</v>
       </c>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AG66">
+        <v>4077.07</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
       <c r="AC75" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
       <c r="AC76" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3490,68 +4449,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149F63B9-04C8-E04C-B2AF-072FD74F86EE}">
-  <dimension ref="A1:T65"/>
+  <dimension ref="A1:U82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="24"/>
+    <col min="1" max="1" width="13.6640625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="24"/>
     <col min="3" max="3" width="9.1640625" style="24" customWidth="1"/>
     <col min="4" max="4" width="8" style="24" customWidth="1"/>
     <col min="5" max="8" width="10.83203125" style="24"/>
     <col min="9" max="9" width="12.6640625" style="24" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" style="24"/>
     <col min="11" max="11" width="4" style="24" customWidth="1"/>
-    <col min="12" max="14" width="13" style="24" customWidth="1"/>
-    <col min="15" max="15" width="7.1640625" style="24" customWidth="1"/>
-    <col min="16" max="17" width="14" style="25" customWidth="1"/>
-    <col min="18" max="18" width="7.1640625" style="24" customWidth="1"/>
-    <col min="19" max="19" width="42.1640625" style="24" customWidth="1"/>
-    <col min="20" max="20" width="90.83203125" style="24" customWidth="1"/>
-    <col min="21" max="16384" width="10.83203125" style="24"/>
+    <col min="12" max="12" width="11" style="24" customWidth="1"/>
+    <col min="13" max="15" width="13" style="24" customWidth="1"/>
+    <col min="16" max="16" width="7.1640625" style="24" customWidth="1"/>
+    <col min="17" max="18" width="14" style="25" customWidth="1"/>
+    <col min="19" max="19" width="7.1640625" style="24" customWidth="1"/>
+    <col min="20" max="20" width="42.1640625" style="24" customWidth="1"/>
+    <col min="21" max="21" width="90.83203125" style="24" customWidth="1"/>
+    <col min="22" max="16384" width="10.83203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="13" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="13" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
       <c r="K1" s="10"/>
-      <c r="L1" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="P1" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q1" s="33"/>
-      <c r="S1" s="14" t="s">
+      <c r="L1" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="Q1" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="R1" s="37"/>
+      <c r="T1" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>129</v>
@@ -3580,23 +4542,26 @@
       <c r="J2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="Q2" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="R2" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="Q2" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="18" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:21" s="18" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="19"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
@@ -3608,36 +4573,39 @@
         <v>149</v>
       </c>
       <c r="H3" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="I3" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="J3" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="J3" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="O3" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="Q3" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="N3" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+      <c r="R3" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -3663,17 +4631,17 @@
       <c r="J4" s="3">
         <v>-1.4527574000000001</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>0.1131438</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>-6.6764110000000002E-2</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="3">
         <v>2.7238609999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
@@ -3687,930 +4655,1383 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C7" s="4">
         <v>0.44019999999999998</v>
       </c>
-      <c r="D6" s="16">
-        <f>C6*372</f>
+      <c r="D7" s="16">
+        <f>C7*372</f>
         <v>163.7544</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E7" s="25">
         <v>-5.2396580000000004</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F7" s="25">
         <v>-2.0374949999999999E-2</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G7" s="25">
         <v>1.1751048399999999</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H7" s="25">
         <v>-0.63276858000000002</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I7" s="25">
         <v>-0.12012249999999999</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J7" s="25">
         <v>-0.20386099999999999</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="25">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="25">
         <v>0.28438279999999999</v>
       </c>
-      <c r="M6" s="25">
+      <c r="N7" s="25">
         <v>-5.5374939999999996E-3</v>
       </c>
-      <c r="N6" s="25">
+      <c r="O7" s="25">
         <v>2.9583330000000001</v>
       </c>
-      <c r="P6" s="26">
+      <c r="Q7" s="26">
         <v>3.5628739999999999</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="R7" s="26">
         <v>3.1017960000000002</v>
       </c>
-      <c r="S6" s="25" t="s">
+      <c r="T7" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="U7" s="24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="38"/>
+      <c r="B8" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.34549999999999997</v>
+      </c>
+      <c r="D8" s="16">
+        <f t="shared" ref="D8:D9" si="0">C8*372</f>
+        <v>128.52599999999998</v>
+      </c>
+      <c r="E8" s="25">
+        <v>-11.960948999999999</v>
+      </c>
+      <c r="F8" s="25">
+        <v>-0.51352998999999999</v>
+      </c>
+      <c r="G8" s="27">
+        <v>2.9108680000000001E-2</v>
+      </c>
+      <c r="H8" s="25">
+        <v>-7.817404E-2</v>
+      </c>
+      <c r="I8" s="27">
+        <v>-0.37394050000000001</v>
+      </c>
+      <c r="J8" s="25">
+        <v>-0.57822169999999995</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="25">
+        <v>0.1916882</v>
+      </c>
+      <c r="N8" s="25">
+        <v>-0.45784888699999998</v>
+      </c>
+      <c r="O8" s="25">
+        <v>2.889764</v>
+      </c>
+      <c r="Q8" s="26">
+        <v>3.5118109999999998</v>
+      </c>
+      <c r="R8" s="26">
+        <v>2.9842520000000001</v>
+      </c>
+      <c r="T8" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="T6" s="24" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
-      <c r="B7" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.34549999999999997</v>
-      </c>
-      <c r="D7" s="16">
-        <f t="shared" ref="D7:D8" si="0">C7*372</f>
-        <v>128.52599999999998</v>
-      </c>
-      <c r="E7" s="25">
-        <v>-11.960948999999999</v>
-      </c>
-      <c r="F7" s="25">
-        <v>-0.51352998999999999</v>
-      </c>
-      <c r="G7" s="27">
-        <v>2.9108680000000001E-2</v>
-      </c>
-      <c r="H7" s="25">
-        <v>-7.817404E-2</v>
-      </c>
-      <c r="I7" s="27">
-        <v>-0.37394050000000001</v>
-      </c>
-      <c r="J7" s="25">
-        <v>-0.57822169999999995</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="25">
-        <v>0.1916882</v>
-      </c>
-      <c r="M7" s="25">
-        <v>-0.45784888699999998</v>
-      </c>
-      <c r="N7" s="25">
-        <v>2.889764</v>
-      </c>
-      <c r="P7" s="26">
-        <v>3.5118109999999998</v>
-      </c>
-      <c r="Q7" s="26">
-        <v>2.9842520000000001</v>
-      </c>
-      <c r="S7" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="T7" s="24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
-      <c r="B8" s="3" t="s">
+      <c r="U8" s="24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="38"/>
+      <c r="B9" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C9" s="4">
         <v>0.21440000000000001</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D9" s="16">
         <f t="shared" si="0"/>
         <v>79.756799999999998</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E9" s="25">
         <v>-3.0156710000000002</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F9" s="27">
         <v>-0.49434567000000001</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G9" s="25">
         <v>1.0371760299999999</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H9" s="25">
         <v>-0.61609676000000002</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I9" s="27">
         <v>-2.5005600000000001</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J9" s="27">
         <v>-2.577448</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="25">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="25">
         <v>-0.38356509999999999</v>
       </c>
-      <c r="M8" s="25">
+      <c r="N9" s="25">
         <v>0.438129396</v>
       </c>
-      <c r="N8" s="25">
+      <c r="O9" s="25">
         <v>1.948718</v>
       </c>
-      <c r="P8" s="26">
+      <c r="Q9" s="26">
         <v>3.0769229999999999</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="R9" s="26">
         <v>3.4871789999999998</v>
       </c>
-      <c r="S8" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="T8" s="24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
+      <c r="T9" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="U9" s="24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D10" s="33">
+        <f>SUM(D7:D9)</f>
+        <v>372.03719999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0.43680000000000002</v>
+      </c>
+      <c r="D13" s="33">
+        <f>C13*293</f>
+        <v>127.98240000000001</v>
+      </c>
+      <c r="E13" s="25">
+        <v>-4.307188</v>
+      </c>
+      <c r="F13" s="48">
+        <v>-5.6911080000000003E-2</v>
+      </c>
+      <c r="G13" s="25">
+        <v>1.4155914599999999</v>
+      </c>
+      <c r="H13" s="25">
+        <v>-0.54895119999999997</v>
+      </c>
+      <c r="I13" s="48">
+        <v>-0.15780269999999999</v>
+      </c>
+      <c r="J13" s="48">
+        <v>-2.449573E-2</v>
+      </c>
+      <c r="L13" s="47">
+        <v>102409.79</v>
+      </c>
+      <c r="M13" s="43">
+        <v>0.36390070000000002</v>
+      </c>
+      <c r="N13" s="43">
+        <v>4.0576270000000003E-3</v>
+      </c>
+      <c r="O13" s="43">
+        <v>3.0373709999999998</v>
+      </c>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="43">
+        <v>3.6237110000000001</v>
+      </c>
+      <c r="R13" s="43">
+        <v>3.1365980000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="38"/>
+      <c r="B14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0.3382</v>
+      </c>
+      <c r="D14" s="33">
+        <f t="shared" ref="D14:D15" si="1">C14*293</f>
+        <v>99.092600000000004</v>
+      </c>
+      <c r="E14" s="25">
+        <v>-12.072918</v>
+      </c>
+      <c r="F14" s="25">
+        <v>-0.57777177999999996</v>
+      </c>
+      <c r="G14" s="48">
+        <v>-8.2731589999999994E-2</v>
+      </c>
+      <c r="H14" s="25">
+        <v>-0.1130521</v>
+      </c>
+      <c r="I14" s="48">
+        <v>-0.38922630000000003</v>
+      </c>
+      <c r="J14" s="25">
+        <v>-0.64567629999999998</v>
+      </c>
+      <c r="L14" s="47">
+        <v>80258.47</v>
+      </c>
+      <c r="M14" s="43">
+        <v>0.47952470000000003</v>
+      </c>
+      <c r="N14" s="43">
+        <v>-0.59041677299999995</v>
+      </c>
+      <c r="O14" s="43">
+        <v>3.2691620000000001</v>
+      </c>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="43">
+        <v>3.5567570000000002</v>
+      </c>
+      <c r="R14" s="43">
+        <v>2.9171170000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="38"/>
+      <c r="B15" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D15" s="33">
+        <f t="shared" si="1"/>
+        <v>65.924999999999997</v>
+      </c>
+      <c r="E15" s="25">
+        <v>-2.3629799999999999</v>
+      </c>
+      <c r="F15" s="25">
+        <v>-0.43171055000000003</v>
+      </c>
+      <c r="G15" s="25">
+        <v>1.0947955599999999</v>
+      </c>
+      <c r="H15" s="25">
+        <v>-0.4848305</v>
+      </c>
+      <c r="I15" s="25">
+        <v>-1.5872371999999999</v>
+      </c>
+      <c r="J15" s="25">
+        <v>-1.9909904899999999</v>
+      </c>
+      <c r="L15" s="47">
+        <v>99797.98</v>
+      </c>
+      <c r="M15" s="43">
+        <v>-0.24332090000000001</v>
+      </c>
+      <c r="N15" s="43">
+        <v>0.36764788199999998</v>
+      </c>
+      <c r="O15" s="43">
+        <v>1.9595959999999999</v>
+      </c>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="43">
+        <v>3.1944439999999998</v>
+      </c>
+      <c r="R15" s="43">
+        <v>3.545455</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D16" s="33">
+        <f>SUM(D13:D15)</f>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" s="49" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="28">
+        <v>0.53759999999999997</v>
+      </c>
+      <c r="D19" s="33">
+        <f>C19*219</f>
+        <v>117.73439999999999</v>
+      </c>
+      <c r="E19" s="25">
+        <v>-5.2347830000000002</v>
+      </c>
+      <c r="F19" s="25">
+        <v>-0.13052569999999999</v>
+      </c>
+      <c r="G19" s="25">
+        <v>1.2156625000000001</v>
+      </c>
+      <c r="H19" s="25">
+        <v>-0.53331280000000003</v>
+      </c>
+      <c r="I19" s="25">
+        <v>-0.42369773999999999</v>
+      </c>
+      <c r="J19" s="48">
+        <v>-0.16633010000000001</v>
+      </c>
+      <c r="K19" s="25"/>
+      <c r="L19" s="47">
+        <v>113699.08</v>
+      </c>
+      <c r="M19" s="43">
+        <v>0.26359749999999998</v>
+      </c>
+      <c r="N19" s="43">
+        <v>1.678999E-3</v>
+      </c>
+      <c r="O19" s="43">
+        <v>3.0394220000000001</v>
+      </c>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="43">
+        <v>3.5716160000000001</v>
+      </c>
+      <c r="R19" s="43">
+        <v>3.189225</v>
+      </c>
+      <c r="S19" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="T19" s="44" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="38"/>
+      <c r="B20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="28">
+        <v>0.27239999999999998</v>
+      </c>
+      <c r="D20" s="33">
+        <f t="shared" ref="D20:D21" si="2">C20*219</f>
+        <v>59.655599999999993</v>
+      </c>
+      <c r="E20" s="25">
+        <v>-17.028220000000001</v>
+      </c>
+      <c r="F20" s="25">
+        <v>-0.84136719999999998</v>
+      </c>
+      <c r="G20" s="48">
+        <v>-0.22639509999999999</v>
+      </c>
+      <c r="H20" s="48">
+        <v>-0.12834789999999999</v>
+      </c>
+      <c r="I20" s="48">
+        <v>-1.086732E-2</v>
+      </c>
+      <c r="J20" s="48">
+        <v>-0.77157010000000004</v>
+      </c>
+      <c r="K20" s="25"/>
+      <c r="L20" s="47">
+        <v>78828.38</v>
+      </c>
+      <c r="M20" s="43">
+        <v>0.81989889999999999</v>
+      </c>
+      <c r="N20" s="43">
+        <v>-0.65615816900000001</v>
+      </c>
+      <c r="O20" s="43">
+        <v>3.8085810000000002</v>
+      </c>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="43">
+        <v>3.7326730000000001</v>
+      </c>
+      <c r="R20" s="43">
+        <v>2.7722769999999999</v>
+      </c>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+    </row>
+    <row r="21" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="38"/>
+      <c r="B21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="28">
+        <v>0.18990000000000001</v>
+      </c>
+      <c r="D21" s="33">
+        <f t="shared" si="2"/>
+        <v>41.588100000000004</v>
+      </c>
+      <c r="E21" s="62">
+        <v>-1.423368</v>
+      </c>
+      <c r="F21" s="35">
+        <v>-0.21264669999999999</v>
+      </c>
+      <c r="G21" s="35">
+        <v>1.165953</v>
+      </c>
+      <c r="H21" s="35">
+        <v>-0.40516219999999997</v>
+      </c>
+      <c r="I21" s="35">
+        <v>-0.83884742999999995</v>
+      </c>
+      <c r="J21" s="35">
+        <v>-0.91693610000000003</v>
+      </c>
+      <c r="K21" s="25"/>
+      <c r="L21" s="47">
+        <v>112391.3</v>
+      </c>
+      <c r="M21" s="43">
+        <v>-0.1726809</v>
+      </c>
+      <c r="N21" s="43">
+        <v>0.34288606300000002</v>
+      </c>
+      <c r="O21" s="43">
+        <v>1.9347829999999999</v>
+      </c>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="43">
+        <v>3.1260870000000001</v>
+      </c>
+      <c r="R21" s="43">
+        <v>3.4173909999999998</v>
+      </c>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D22" s="33">
+        <f>SUM(D19:D21)</f>
+        <v>218.97809999999998</v>
+      </c>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M23" s="39"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M24" s="39"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M25" s="45">
+        <v>2</v>
+      </c>
+      <c r="N25" s="43"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M26" s="45">
+        <v>3</v>
+      </c>
+      <c r="N26" s="43"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M27" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J28" s="46"/>
+    </row>
+    <row r="30" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="28">
+        <v>0.4239</v>
+      </c>
+      <c r="D30" s="16">
+        <f t="shared" ref="D30:D32" si="3">C30*372</f>
+        <v>157.6908</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="38"/>
+      <c r="B31" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="28">
+        <v>0.34660000000000002</v>
+      </c>
+      <c r="D31" s="16">
+        <f t="shared" si="3"/>
+        <v>128.93520000000001</v>
+      </c>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+    </row>
+    <row r="32" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="38"/>
+      <c r="B32" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="28">
+        <v>0.22950000000000001</v>
+      </c>
+      <c r="D32" s="16">
+        <f t="shared" si="3"/>
+        <v>85.374000000000009</v>
+      </c>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="28">
-        <v>0.4239</v>
-      </c>
-      <c r="D13" s="16">
-        <f t="shared" ref="D13:D15" si="1">C13*372</f>
-        <v>157.6908</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
-      <c r="B14" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="28">
-        <v>0.34660000000000002</v>
-      </c>
-      <c r="D14" s="16">
-        <f t="shared" si="1"/>
-        <v>128.93520000000001</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-    </row>
-    <row r="15" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="28">
-        <v>0.22950000000000001</v>
-      </c>
-      <c r="D15" s="16">
-        <f t="shared" si="1"/>
-        <v>85.374000000000009</v>
-      </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="13"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="13"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="23" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+    <row r="37" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="D37" s="23" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D20" s="23" t="s">
+      <c r="M37" s="3">
+        <v>0.26943739999999999</v>
+      </c>
+      <c r="N37" s="3">
+        <v>-1.0036700000000001E-2</v>
+      </c>
+      <c r="O37" s="3">
+        <v>2.9454549999999999</v>
+      </c>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3">
+        <v>3.5609760000000001</v>
+      </c>
+      <c r="R37" s="3">
+        <v>3.1158540000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+    </row>
+    <row r="39" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="D39" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="E39" s="3">
+        <v>-2.5229200000000001</v>
+      </c>
+      <c r="F39" s="31">
+        <v>5.4245450000000002E-3</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.4842863</v>
+      </c>
+      <c r="H39" s="3">
+        <v>-0.2593317</v>
+      </c>
+      <c r="I39" s="31">
+        <v>-5.3207049999999999E-2</v>
+      </c>
+      <c r="J39" s="31">
+        <v>-8.8383050000000005E-2</v>
+      </c>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="D40" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="E40" s="3">
+        <v>-4.2048670000000001</v>
+      </c>
+      <c r="F40" s="31">
+        <v>9.0409089999999998E-3</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.80714379999999997</v>
+      </c>
+      <c r="H40" s="3">
+        <v>-0.43221949999999998</v>
+      </c>
+      <c r="I40" s="31">
+        <v>-8.8678419999999994E-2</v>
+      </c>
+      <c r="J40" s="31">
+        <v>-0.14730509</v>
+      </c>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="D41" s="30">
+        <v>3.5</v>
+      </c>
+      <c r="E41" s="3">
+        <v>-5.8868140000000002</v>
+      </c>
+      <c r="F41" s="31">
+        <v>1.2657272000000001E-2</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1.1300014</v>
+      </c>
+      <c r="H41" s="3">
+        <v>-0.60510719999999996</v>
+      </c>
+      <c r="I41" s="31">
+        <v>-0.12414979</v>
+      </c>
+      <c r="J41" s="31">
+        <v>-0.20622712000000001</v>
+      </c>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+    </row>
+    <row r="42" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="D42" s="30">
+        <v>4.5</v>
+      </c>
+      <c r="E42" s="3">
+        <v>-7.5687610000000003</v>
+      </c>
+      <c r="F42" s="31">
+        <v>1.6273636000000001E-2</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1.4528589000000001</v>
+      </c>
+      <c r="H42" s="3">
+        <v>-0.77799499999999999</v>
+      </c>
+      <c r="I42" s="31">
+        <v>-0.15962116000000001</v>
+      </c>
+      <c r="J42" s="31">
+        <v>-0.26514915999999999</v>
+      </c>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+    </row>
+    <row r="43" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="D43" s="30">
+        <v>5.5</v>
+      </c>
+      <c r="E43" s="3">
+        <v>-9.2507079999999995</v>
+      </c>
+      <c r="F43" s="31">
+        <v>1.9890000000000001E-2</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1.7757164000000001</v>
+      </c>
+      <c r="H43" s="3">
+        <v>-0.95088280000000003</v>
+      </c>
+      <c r="I43" s="31">
+        <v>-0.19509252999999999</v>
+      </c>
+      <c r="J43" s="31">
+        <v>-0.32407119000000001</v>
+      </c>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+    </row>
+    <row r="44" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="D44" s="30">
+        <v>6.5</v>
+      </c>
+      <c r="E44" s="3">
+        <v>-10.932653999999999</v>
+      </c>
+      <c r="F44" s="31">
+        <v>2.3506362999999999E-2</v>
+      </c>
+      <c r="G44" s="3">
+        <v>2.0985738999999999</v>
+      </c>
+      <c r="H44" s="3">
+        <v>-1.1237706000000001</v>
+      </c>
+      <c r="I44" s="31">
+        <v>-0.23056389999999999</v>
+      </c>
+      <c r="J44" s="31">
+        <v>-0.38299323000000002</v>
+      </c>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+    </row>
+    <row r="45" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="D45" s="30"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+    </row>
+    <row r="46" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="D46" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="L20" s="3">
-        <v>0.26943739999999999</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-1.0036700000000001E-2</v>
-      </c>
-      <c r="N20" s="3">
-        <v>2.9454549999999999</v>
-      </c>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3">
-        <v>3.5609760000000001</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>3.1158540000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-    </row>
-    <row r="22" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D22" s="29">
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="M46" s="3">
+        <v>0.2133893</v>
+      </c>
+      <c r="N46" s="3">
+        <v>-0.45527709999999999</v>
+      </c>
+      <c r="O46" s="3">
+        <v>2.9279999999999999</v>
+      </c>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3">
+        <v>3.504</v>
+      </c>
+      <c r="R46" s="3">
+        <v>2.968</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="D47" s="30"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+    </row>
+    <row r="48" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="D48" s="30">
         <v>1.5</v>
       </c>
-      <c r="E22" s="3">
-        <v>-2.5229200000000001</v>
-      </c>
-      <c r="F22" s="31">
-        <v>5.4245450000000002E-3</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0.4842863</v>
-      </c>
-      <c r="H22" s="3">
-        <v>-0.2593317</v>
-      </c>
-      <c r="I22" s="31">
-        <v>-5.3207049999999999E-2</v>
-      </c>
-      <c r="J22" s="31">
-        <v>-8.8383050000000005E-2</v>
-      </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-    </row>
-    <row r="23" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D23" s="29">
+      <c r="E48" s="3">
+        <v>-4.5551640000000004</v>
+      </c>
+      <c r="F48" s="3">
+        <v>-0.1724976</v>
+      </c>
+      <c r="G48" s="31">
+        <v>1.458125E-2</v>
+      </c>
+      <c r="H48" s="3">
+        <v>-2.6324340000000002E-2</v>
+      </c>
+      <c r="I48" s="31">
+        <v>-0.1204315</v>
+      </c>
+      <c r="J48" s="3">
+        <v>-0.19038669999999999</v>
+      </c>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+    </row>
+    <row r="49" spans="4:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="D49" s="30">
         <v>2.5</v>
       </c>
-      <c r="E23" s="3">
-        <v>-4.2048670000000001</v>
-      </c>
-      <c r="F23" s="31">
-        <v>9.0409089999999998E-3</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0.80714379999999997</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-0.43221949999999998</v>
-      </c>
-      <c r="I23" s="31">
-        <v>-8.8678419999999994E-2</v>
-      </c>
-      <c r="J23" s="31">
-        <v>-0.14730509</v>
-      </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-    </row>
-    <row r="24" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D24" s="30">
+      <c r="E49" s="3">
+        <v>-7.5919400000000001</v>
+      </c>
+      <c r="F49" s="3">
+        <v>-0.28749599999999997</v>
+      </c>
+      <c r="G49" s="31">
+        <v>2.430208E-2</v>
+      </c>
+      <c r="H49" s="3">
+        <v>-4.3873889999999999E-2</v>
+      </c>
+      <c r="I49" s="31">
+        <v>-0.20071919999999999</v>
+      </c>
+      <c r="J49" s="3">
+        <v>-0.31731120000000002</v>
+      </c>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+    </row>
+    <row r="50" spans="4:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="D50" s="30">
         <v>3.5</v>
       </c>
-      <c r="E24" s="3">
-        <v>-5.8868140000000002</v>
-      </c>
-      <c r="F24" s="31">
-        <v>1.2657272000000001E-2</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1.1300014</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-0.60510719999999996</v>
-      </c>
-      <c r="I24" s="31">
-        <v>-0.12414979</v>
-      </c>
-      <c r="J24" s="31">
-        <v>-0.20622712000000001</v>
-      </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-    </row>
-    <row r="25" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D25" s="30">
+      <c r="E50" s="3">
+        <v>-10.628716000000001</v>
+      </c>
+      <c r="F50" s="3">
+        <v>-0.40249439999999997</v>
+      </c>
+      <c r="G50" s="31">
+        <v>3.4022910000000003E-2</v>
+      </c>
+      <c r="H50" s="3">
+        <v>-6.1423449999999997E-2</v>
+      </c>
+      <c r="I50" s="31">
+        <v>-0.2810069</v>
+      </c>
+      <c r="J50" s="3">
+        <v>-0.44423570000000001</v>
+      </c>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+    </row>
+    <row r="51" spans="4:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="D51" s="30">
         <v>4.5</v>
       </c>
-      <c r="E25" s="3">
-        <v>-7.5687610000000003</v>
-      </c>
-      <c r="F25" s="31">
-        <v>1.6273636000000001E-2</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1.4528589000000001</v>
-      </c>
-      <c r="H25" s="3">
-        <v>-0.77799499999999999</v>
-      </c>
-      <c r="I25" s="31">
-        <v>-0.15962116000000001</v>
-      </c>
-      <c r="J25" s="31">
-        <v>-0.26514915999999999</v>
-      </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-    </row>
-    <row r="26" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D26" s="30">
+      <c r="E51" s="3">
+        <v>-13.665492</v>
+      </c>
+      <c r="F51" s="3">
+        <v>-0.51749279999999998</v>
+      </c>
+      <c r="G51" s="31">
+        <v>4.3743749999999998E-2</v>
+      </c>
+      <c r="H51" s="3">
+        <v>-7.8973009999999996E-2</v>
+      </c>
+      <c r="I51" s="31">
+        <v>-0.36129460000000002</v>
+      </c>
+      <c r="J51" s="3">
+        <v>-0.57116020000000001</v>
+      </c>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+    </row>
+    <row r="52" spans="4:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="D52" s="30">
         <v>5.5</v>
       </c>
-      <c r="E26" s="3">
-        <v>-9.2507079999999995</v>
-      </c>
-      <c r="F26" s="31">
-        <v>1.9890000000000001E-2</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1.7757164000000001</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-0.95088280000000003</v>
-      </c>
-      <c r="I26" s="31">
-        <v>-0.19509252999999999</v>
-      </c>
-      <c r="J26" s="31">
-        <v>-0.32407119000000001</v>
-      </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D27" s="30">
+      <c r="E52" s="3">
+        <v>-16.702268</v>
+      </c>
+      <c r="F52" s="3">
+        <v>-0.63249120000000003</v>
+      </c>
+      <c r="G52" s="31">
+        <v>5.3464579999999998E-2</v>
+      </c>
+      <c r="H52" s="3">
+        <v>-9.6522570000000002E-2</v>
+      </c>
+      <c r="I52" s="31">
+        <v>-0.44158229999999998</v>
+      </c>
+      <c r="J52" s="3">
+        <v>-0.6980847</v>
+      </c>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+    </row>
+    <row r="53" spans="4:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="D53" s="30">
         <v>6.5</v>
       </c>
-      <c r="E27" s="3">
-        <v>-10.932653999999999</v>
-      </c>
-      <c r="F27" s="31">
-        <v>2.3506362999999999E-2</v>
-      </c>
-      <c r="G27" s="3">
-        <v>2.0985738999999999</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-1.1237706000000001</v>
-      </c>
-      <c r="I27" s="31">
-        <v>-0.23056389999999999</v>
-      </c>
-      <c r="J27" s="31">
-        <v>-0.38299323000000002</v>
-      </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-    </row>
-    <row r="28" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D28" s="30"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-    </row>
-    <row r="29" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D29" s="23" t="s">
+      <c r="E53" s="3">
+        <v>-19.739044</v>
+      </c>
+      <c r="F53" s="3">
+        <v>-0.74748959999999998</v>
+      </c>
+      <c r="G53" s="31">
+        <v>6.3185409999999997E-2</v>
+      </c>
+      <c r="H53" s="3">
+        <v>-0.11407212</v>
+      </c>
+      <c r="I53" s="31">
+        <v>-0.52186999999999995</v>
+      </c>
+      <c r="J53" s="3">
+        <v>-0.8250092</v>
+      </c>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+    </row>
+    <row r="54" spans="4:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="D54" s="30"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+    </row>
+    <row r="55" spans="4:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="D55" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" s="3">
-        <v>0.2133893</v>
-      </c>
-      <c r="M29" s="3">
-        <v>-0.45527709999999999</v>
-      </c>
-      <c r="N29" s="3">
-        <v>2.9279999999999999</v>
-      </c>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3">
-        <v>3.504</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>2.968</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D30" s="30"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-    </row>
-    <row r="31" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D31" s="30">
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="M55" s="3">
+        <v>-0.34853250000000002</v>
+      </c>
+      <c r="N55" s="3">
+        <v>0.4055745</v>
+      </c>
+      <c r="O55" s="3">
+        <v>1.9759040000000001</v>
+      </c>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3">
+        <v>3.120482</v>
+      </c>
+      <c r="R55" s="3">
+        <v>3.4578310000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="4:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="D56" s="30"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="4:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="D57" s="30">
         <v>1.5</v>
       </c>
-      <c r="E31" s="3">
-        <v>-4.5551640000000004</v>
-      </c>
-      <c r="F31" s="3">
-        <v>-0.1724976</v>
-      </c>
-      <c r="G31" s="31">
-        <v>1.458125E-2</v>
-      </c>
-      <c r="H31" s="3">
-        <v>-2.6324340000000002E-2</v>
-      </c>
-      <c r="I31" s="31">
-        <v>-0.1204315</v>
-      </c>
-      <c r="J31" s="3">
-        <v>-0.19038669999999999</v>
-      </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-    </row>
-    <row r="32" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D32" s="30">
+      <c r="E57" s="31">
+        <v>-1.5166790000000001</v>
+      </c>
+      <c r="F57" s="3">
+        <v>-0.42663830000000003</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0.93326710000000002</v>
+      </c>
+      <c r="H57" s="3">
+        <v>-0.54450240000000005</v>
+      </c>
+      <c r="I57" s="3">
+        <v>-1.950582</v>
+      </c>
+      <c r="J57" s="3">
+        <v>-1.9975210000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="4:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="D58" s="30">
         <v>2.5</v>
       </c>
-      <c r="E32" s="3">
-        <v>-7.5919400000000001</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-0.28749599999999997</v>
-      </c>
-      <c r="G32" s="31">
-        <v>2.430208E-2</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-4.3873889999999999E-2</v>
-      </c>
-      <c r="I32" s="31">
-        <v>-0.20071919999999999</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-0.31731120000000002</v>
-      </c>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-    </row>
-    <row r="33" spans="4:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D33" s="30">
+      <c r="E58" s="31">
+        <v>-2.5277980000000002</v>
+      </c>
+      <c r="F58" s="3">
+        <v>-0.71106389999999997</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1.5554452000000001</v>
+      </c>
+      <c r="H58" s="3">
+        <v>-0.90750399999999998</v>
+      </c>
+      <c r="I58" s="3">
+        <v>-3.2509700000000001</v>
+      </c>
+      <c r="J58" s="3">
+        <v>-3.329202</v>
+      </c>
+    </row>
+    <row r="59" spans="4:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="D59" s="29">
         <v>3.5</v>
       </c>
-      <c r="E33" s="3">
-        <v>-10.628716000000001</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-0.40249439999999997</v>
-      </c>
-      <c r="G33" s="31">
-        <v>3.4022910000000003E-2</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-6.1423449999999997E-2</v>
-      </c>
-      <c r="I33" s="31">
-        <v>-0.2810069</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-0.44423570000000001</v>
-      </c>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-    </row>
-    <row r="34" spans="4:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D34" s="30">
+      <c r="E59" s="31">
+        <v>-3.5389170000000001</v>
+      </c>
+      <c r="F59" s="3">
+        <v>-0.99548939999999997</v>
+      </c>
+      <c r="G59" s="3">
+        <v>2.1776232000000002</v>
+      </c>
+      <c r="H59" s="3">
+        <v>-1.2705055999999999</v>
+      </c>
+      <c r="I59" s="3">
+        <v>-4.5513579999999996</v>
+      </c>
+      <c r="J59" s="3">
+        <v>-4.6608830000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="4:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="D60" s="29">
         <v>4.5</v>
       </c>
-      <c r="E34" s="3">
-        <v>-13.665492</v>
-      </c>
-      <c r="F34" s="3">
-        <v>-0.51749279999999998</v>
-      </c>
-      <c r="G34" s="31">
-        <v>4.3743749999999998E-2</v>
-      </c>
-      <c r="H34" s="3">
-        <v>-7.8973009999999996E-2</v>
-      </c>
-      <c r="I34" s="31">
-        <v>-0.36129460000000002</v>
-      </c>
-      <c r="J34" s="3">
-        <v>-0.57116020000000001</v>
-      </c>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-    </row>
-    <row r="35" spans="4:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D35" s="30">
+      <c r="E60" s="31">
+        <v>-4.5500360000000004</v>
+      </c>
+      <c r="F60" s="3">
+        <v>-1.2799149999999999</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2.7998012999999999</v>
+      </c>
+      <c r="H60" s="3">
+        <v>-1.6335073</v>
+      </c>
+      <c r="I60" s="3">
+        <v>-5.8517469999999996</v>
+      </c>
+      <c r="J60" s="3">
+        <v>-5.9925639999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="4:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="D61" s="29">
         <v>5.5</v>
       </c>
-      <c r="E35" s="3">
-        <v>-16.702268</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-0.63249120000000003</v>
-      </c>
-      <c r="G35" s="31">
-        <v>5.3464579999999998E-2</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-9.6522570000000002E-2</v>
-      </c>
-      <c r="I35" s="31">
-        <v>-0.44158229999999998</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-0.6980847</v>
-      </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-    </row>
-    <row r="36" spans="4:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D36" s="30">
+      <c r="E61" s="31">
+        <v>-5.5611550000000003</v>
+      </c>
+      <c r="F61" s="3">
+        <v>-1.5643404999999999</v>
+      </c>
+      <c r="G61" s="3">
+        <v>3.4219794000000001</v>
+      </c>
+      <c r="H61" s="3">
+        <v>-1.9965089</v>
+      </c>
+      <c r="I61" s="3">
+        <v>-7.1521350000000004</v>
+      </c>
+      <c r="J61" s="3">
+        <v>-7.3242450000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="4:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="D62" s="29">
         <v>6.5</v>
       </c>
-      <c r="E36" s="3">
-        <v>-19.739044</v>
-      </c>
-      <c r="F36" s="3">
-        <v>-0.74748959999999998</v>
-      </c>
-      <c r="G36" s="31">
-        <v>6.3185409999999997E-2</v>
-      </c>
-      <c r="H36" s="3">
-        <v>-0.11407212</v>
-      </c>
-      <c r="I36" s="31">
-        <v>-0.52186999999999995</v>
-      </c>
-      <c r="J36" s="3">
-        <v>-0.8250092</v>
-      </c>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-    </row>
-    <row r="37" spans="4:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D37" s="30"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-    </row>
-    <row r="38" spans="4:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D38" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="L38" s="3">
-        <v>-0.34853250000000002</v>
-      </c>
-      <c r="M38" s="3">
-        <v>0.4055745</v>
-      </c>
-      <c r="N38" s="3">
-        <v>1.9759040000000001</v>
-      </c>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3">
-        <v>3.120482</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>3.4578310000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="4:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D39" s="30"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="4:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D40" s="30">
-        <v>1.5</v>
-      </c>
-      <c r="E40" s="31">
-        <v>-1.5166790000000001</v>
-      </c>
-      <c r="F40" s="3">
-        <v>-0.42663830000000003</v>
-      </c>
-      <c r="G40" s="3">
-        <v>0.93326710000000002</v>
-      </c>
-      <c r="H40" s="3">
-        <v>-0.54450240000000005</v>
-      </c>
-      <c r="I40" s="3">
-        <v>-1.950582</v>
-      </c>
-      <c r="J40" s="3">
-        <v>-1.9975210000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="4:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D41" s="30">
-        <v>2.5</v>
-      </c>
-      <c r="E41" s="31">
-        <v>-2.5277980000000002</v>
-      </c>
-      <c r="F41" s="3">
-        <v>-0.71106389999999997</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1.5554452000000001</v>
-      </c>
-      <c r="H41" s="3">
-        <v>-0.90750399999999998</v>
-      </c>
-      <c r="I41" s="3">
-        <v>-3.2509700000000001</v>
-      </c>
-      <c r="J41" s="3">
-        <v>-3.329202</v>
-      </c>
-    </row>
-    <row r="42" spans="4:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D42" s="29">
-        <v>3.5</v>
-      </c>
-      <c r="E42" s="31">
-        <v>-3.5389170000000001</v>
-      </c>
-      <c r="F42" s="3">
-        <v>-0.99548939999999997</v>
-      </c>
-      <c r="G42" s="3">
-        <v>2.1776232000000002</v>
-      </c>
-      <c r="H42" s="3">
-        <v>-1.2705055999999999</v>
-      </c>
-      <c r="I42" s="3">
-        <v>-4.5513579999999996</v>
-      </c>
-      <c r="J42" s="3">
-        <v>-4.6608830000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="4:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D43" s="29">
-        <v>4.5</v>
-      </c>
-      <c r="E43" s="31">
-        <v>-4.5500360000000004</v>
-      </c>
-      <c r="F43" s="3">
-        <v>-1.2799149999999999</v>
-      </c>
-      <c r="G43" s="3">
-        <v>2.7998012999999999</v>
-      </c>
-      <c r="H43" s="3">
-        <v>-1.6335073</v>
-      </c>
-      <c r="I43" s="3">
-        <v>-5.8517469999999996</v>
-      </c>
-      <c r="J43" s="3">
-        <v>-5.9925639999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="4:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D44" s="29">
-        <v>5.5</v>
-      </c>
-      <c r="E44" s="31">
-        <v>-5.5611550000000003</v>
-      </c>
-      <c r="F44" s="3">
-        <v>-1.5643404999999999</v>
-      </c>
-      <c r="G44" s="3">
-        <v>3.4219794000000001</v>
-      </c>
-      <c r="H44" s="3">
-        <v>-1.9965089</v>
-      </c>
-      <c r="I44" s="3">
-        <v>-7.1521350000000004</v>
-      </c>
-      <c r="J44" s="3">
-        <v>-7.3242450000000003</v>
-      </c>
-    </row>
-    <row r="45" spans="4:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D45" s="29">
-        <v>6.5</v>
-      </c>
-      <c r="E45" s="31">
+      <c r="E62" s="31">
         <v>-6.5722740000000002</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F62" s="3">
         <v>-1.8487661</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G62" s="3">
         <v>4.0441573999999996</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H62" s="3">
         <v>-2.3595104999999998</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I62" s="3">
         <v>-8.4525229999999993</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J62" s="3">
         <v>-8.6559259999999991</v>
       </c>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E51" s="29"/>
-    </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E52" s="29"/>
-    </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E53" s="29"/>
-    </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E54" s="29"/>
-    </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E55" s="29"/>
-    </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E56" s="29"/>
-    </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E60" s="29"/>
-    </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E61" s="29"/>
-    </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E62" s="29"/>
-    </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E63" s="29"/>
-    </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E64" s="29"/>
-    </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E65" s="29"/>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E68" s="29"/>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E69" s="29"/>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E70" s="29"/>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E71" s="29"/>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E72" s="29"/>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E73" s="29"/>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E77" s="29"/>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E78" s="29"/>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E79" s="29"/>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E80" s="29"/>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E81" s="29"/>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E82" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="L1:N1"/>
+  <mergeCells count="7">
     <mergeCell ref="E1:J1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A30:A32"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="A19:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7689A6B-2AC9-2248-929B-9FD58D2BE8EA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291C86EE-5BF0-4046-9689-F584354080F1}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="162" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4678,4 +6099,175 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD35C43B-6ECD-E74B-A3D0-7FC54043750A}">
+  <dimension ref="A1:B43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="141" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="84.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="51"/>
+    </row>
+    <row r="2" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="53" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="53" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A20" s="58" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="56" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="55"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="57" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="55" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="57" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A34" s="59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="60" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="63" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="63" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="61" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="61" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" location="heading=h.u42d4sobze1t" display="https://docs.google.com/document/d/1rwLltA02OP2pBjvABgdsFmHVDRcBrc71jzDeoayDKkM/edit - heading=h.u42d4sobze1t" xr:uid="{2CFED055-E9F1-5C43-9EC0-FF1D4AC5550B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/code/main/model_output/apollo/battery/0_battery_model_combine_output.xlsx
+++ b/code/main/model_output/apollo/battery/0_battery_model_combine_output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xnw17/Documents/GitHub/Conjoint_Survey_25/code/main/model_output/apollo/battery/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264A4660-45BC-3241-9597-1E510D2439FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A91543-EA5D-6E4C-9006-C94CD8860974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="1320" windowWidth="30240" windowHeight="14540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coef_fit" sheetId="1" r:id="rId1"/>
@@ -1818,19 +1818,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22:XFD22"/>
+      <selection pane="bottomRight" activeCell="A28" sqref="A27:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="3" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="10" width="8.83203125" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="7" customWidth="1"/>
     <col min="12" max="16" width="8.83203125" style="8"/>
     <col min="17" max="22" width="0" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="18.33203125" hidden="1" customWidth="1"/>
@@ -6105,7 +6105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD35C43B-6ECD-E74B-A3D0-7FC54043750A}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="141" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="141" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
